--- a/mall-demo/src/main/resources/template/合同模板.xlsx
+++ b/mall-demo/src/main/resources/template/合同模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22176" windowHeight="9780" tabRatio="421"/>
+    <workbookView windowWidth="22188" windowHeight="9767" tabRatio="421"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,110 +27,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>申请人</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>${title}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>到场单价</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>序号</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>申请日期</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>编码</t>
   </si>
   <si>
-    <t>张三</t>
+    <t>名称</t>
   </si>
   <si>
-    <t>李四</t>
+    <t>级别</t>
   </si>
   <si>
-    <t>王五</t>
+    <t>${list.no}</t>
+  </si>
+  <si>
+    <t>${list.areaCode}</t>
+  </si>
+  <si>
+    <t>${list.areaName}</t>
+  </si>
+  <si>
+    <t>${list.level}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+  <fonts count="20">
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -281,16 +218,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,7 +228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,133 +551,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,14 +685,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1290,64 +1225,59 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.77777777777778" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="33.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
+    <col min="2" max="3" width="18.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1.01</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45359.4621064815</v>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>66.66</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45360.4621064815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="3" customFormat="1" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>88.88</v>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
       </c>
-      <c r="C4" s="3">
-        <v>45361.4621064815</v>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
